--- a/data/trans_orig/IP22C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50670D49-3226-430B-BA8D-1A7BC1B08698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA875767-19B1-4E1D-9CD8-3AABE0B2084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50757AD2-A7F3-49E1-8F62-6F7F16AEF4BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14FAA49E-99BD-4622-B9C5-C7DC01E07E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="358">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
@@ -95,16 +95,16 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>73,85%</t>
+    <t>78,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,10 +113,10 @@
     <t>86,96%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
@@ -125,25 +125,25 @@
     <t>19,78%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>21,5%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,898 +155,901 @@
     <t>1,37%</t>
   </si>
   <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -1055,55 +1058,61 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>84,98%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>12,65%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413EB4CE-8B4E-46BC-9004-40870E4C9AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD35E91-2759-435C-8D4E-AB0579008F11}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,10 +2299,10 @@
         <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2317,13 @@
         <v>140545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2323,13 +2332,13 @@
         <v>119149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -2338,13 +2347,13 @@
         <v>259694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,7 +2368,7 @@
         <v>8486</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>99</v>
@@ -2470,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE58CB69-A7FA-4819-9792-9B7D8858BCEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E57E1B5-7A75-4107-865F-97C7CC5443F1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2651,7 +2660,7 @@
         <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -2660,10 +2669,10 @@
         <v>17718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2675,13 +2684,13 @@
         <v>42061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2705,13 @@
         <v>1814</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2711,13 +2720,13 @@
         <v>710</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2726,13 +2735,13 @@
         <v>2524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2821,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2836,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2860,13 @@
         <v>124444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -2866,13 +2875,13 @@
         <v>91559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -2881,13 +2890,13 @@
         <v>216003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2911,13 @@
         <v>11303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2917,13 +2926,13 @@
         <v>7142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2932,13 +2941,13 @@
         <v>18445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3042,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3066,13 @@
         <v>38533</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -3072,10 +3081,10 @@
         <v>36387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -3087,13 +3096,13 @@
         <v>74920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3117,13 @@
         <v>2089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3123,13 +3132,13 @@
         <v>1387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3138,13 +3147,13 @@
         <v>3476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3233,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3248,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3272,13 @@
         <v>187320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -3278,13 +3287,13 @@
         <v>145664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>476</v>
@@ -3293,13 +3302,13 @@
         <v>332984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3323,13 @@
         <v>15206</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3329,13 +3338,13 @@
         <v>9239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3344,13 +3353,13 @@
         <v>24445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71FD0BD-5C1E-4545-B23B-D3333D95AD5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841BBD53-9076-4212-A2AF-1B52FEC235AE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3442,7 +3451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3555,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3570,7 +3579,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3585,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,10 +3609,10 @@
         <v>6731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3615,10 +3624,10 @@
         <v>8967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3630,13 +3639,13 @@
         <v>15698</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3660,13 @@
         <v>692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3666,13 +3675,13 @@
         <v>1317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3681,13 +3690,13 @@
         <v>2009</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3764,13 @@
         <v>2421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3770,13 +3779,13 @@
         <v>2457</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3785,13 +3794,13 @@
         <v>4878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3815,13 @@
         <v>67591</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>108</v>
@@ -3821,13 +3830,13 @@
         <v>69032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>203</v>
@@ -3836,13 +3845,13 @@
         <v>136623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3866,13 @@
         <v>8248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3872,13 +3881,13 @@
         <v>3453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3887,13 +3896,13 @@
         <v>11701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3985,13 @@
         <v>1793</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3991,13 +4000,13 @@
         <v>1793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4021,13 @@
         <v>22573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4027,13 +4036,13 @@
         <v>27188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4042,13 +4051,13 @@
         <v>49761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4072,13 @@
         <v>2456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4078,13 +4087,13 @@
         <v>1761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4093,13 +4102,13 @@
         <v>4217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4176,13 @@
         <v>2421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4182,13 +4191,13 @@
         <v>4250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4197,13 +4206,13 @@
         <v>6671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4227,13 @@
         <v>96894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>164</v>
@@ -4233,13 +4242,13 @@
         <v>105187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -4248,13 +4257,13 @@
         <v>202081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4278,13 @@
         <v>11395</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4284,13 +4293,13 @@
         <v>6531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -4299,13 +4308,13 @@
         <v>17927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AE9981-5D66-4187-A6D3-36F6EE756B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6B753-0A14-44E8-B883-300CC5E326D7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4397,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4510,7 +4519,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4525,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4555,10 +4564,10 @@
         <v>8755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -4570,10 +4579,10 @@
         <v>5683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -4585,10 +4594,10 @@
         <v>14438</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4606,13 +4615,13 @@
         <v>965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4621,13 +4630,13 @@
         <v>822</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4636,13 +4645,13 @@
         <v>1787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4719,13 @@
         <v>1653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4725,13 +4734,13 @@
         <v>491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4740,13 +4749,13 @@
         <v>2144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4770,13 @@
         <v>61786</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -4776,13 +4785,13 @@
         <v>54282</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M9" s="7">
         <v>165</v>
@@ -4791,13 +4800,13 @@
         <v>116067</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4821,13 @@
         <v>3195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4827,13 +4836,13 @@
         <v>3872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4842,13 +4851,13 @@
         <v>7067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4940,13 @@
         <v>833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4946,13 +4955,13 @@
         <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4976,13 @@
         <v>23966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4982,13 +4991,13 @@
         <v>23952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4997,13 +5006,13 @@
         <v>47917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5027,13 @@
         <v>3614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5033,13 +5042,13 @@
         <v>1434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5048,13 +5057,13 @@
         <v>5048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5131,13 @@
         <v>1653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5137,13 +5146,13 @@
         <v>1324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5152,13 +5161,13 @@
         <v>2976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5182,13 @@
         <v>94505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -5188,13 +5197,13 @@
         <v>83917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -5203,13 +5212,13 @@
         <v>178423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5233,13 @@
         <v>7774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>350</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5239,13 +5248,13 @@
         <v>6128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5254,13 +5263,13 @@
         <v>13902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP22C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA875767-19B1-4E1D-9CD8-3AABE0B2084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F397DDC-5733-4031-8D85-C8D31AF5118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14FAA49E-99BD-4622-B9C5-C7DC01E07E9B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5B038CA-3172-4B70-847D-58CEAD7C08F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="349">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,70 +80,64 @@
     <t>0%</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>5,03%</t>
   </si>
   <si>
     <t>Usted sus familiares u otras personas lo consideraron necesa</t>
   </si>
   <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>73,5%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
   </si>
   <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>26,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,118 +146,118 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>84,01%</t>
+    <t>85,69%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>5,38%</t>
@@ -272,34 +266,28 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -308,811 +296,796 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD35E91-2759-435C-8D4E-AB0579008F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B552C4-664C-4001-9D9E-6C65C0D8F019}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>10877</v>
+        <v>10864</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1711,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>10864</v>
+        <v>10877</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1735,43 +1708,43 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>576</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7">
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2682</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>576</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1780,13 +1753,13 @@
         <v>3259</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,34 +1768,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11440</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>13559</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11440</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -1831,51 +1804,51 @@
         <v>24999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1358</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1884,13 +1857,13 @@
         <v>1358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,34 +1872,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>79302</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7">
         <v>140</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>93763</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="7">
-        <v>122</v>
-      </c>
-      <c r="I9" s="7">
-        <v>79302</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>262</v>
@@ -1935,49 +1908,49 @@
         <v>173065</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4385</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3761</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4385</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1986,13 +1959,13 @@
         <v>8146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,34 +1974,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83687</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
         <v>148</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>98882</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="7">
-        <v>129</v>
-      </c>
-      <c r="I11" s="7">
-        <v>83687</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -2037,51 +2010,51 @@
         <v>182570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>778</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>778</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2090,13 +2063,13 @@
         <v>778</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,34 +2078,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28983</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>35906</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28983</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -2141,49 +2114,49 @@
         <v>64888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2042</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2192,13 +2165,13 @@
         <v>3349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,34 +2180,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7">
+        <v>31068</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>57</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>37948</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>47</v>
-      </c>
-      <c r="I15" s="7">
-        <v>31068</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -2243,13 +2216,13 @@
         <v>69015</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,34 +2233,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1358</v>
+        <v>778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>778</v>
+        <v>1358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2296,13 +2269,13 @@
         <v>2137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,34 +2284,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>182</v>
+      </c>
+      <c r="D17" s="7">
+        <v>119149</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
         <v>210</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>140545</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="7">
-        <v>182</v>
-      </c>
-      <c r="I17" s="7">
-        <v>119149</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -2347,49 +2320,49 @@
         <v>259694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6268</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8486</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6268</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2398,13 +2371,13 @@
         <v>14754</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,34 +2386,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>193</v>
+      </c>
+      <c r="D19" s="7">
+        <v>126195</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
         <v>225</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>150389</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7">
-        <v>193</v>
-      </c>
-      <c r="I19" s="7">
-        <v>126195</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
@@ -2449,18 +2422,18 @@
         <v>276584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E57E1B5-7A75-4107-865F-97C7CC5443F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44C630D-42E5-4A89-8DBE-FD5048F2FEB2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2496,7 +2469,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2624,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2639,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,34 +2621,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
+        <v>17718</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7">
         <v>24343</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17718</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2684,49 +2657,49 @@
         <v>42061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>710</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1814</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>710</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2735,13 +2708,13 @@
         <v>2524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,34 +2723,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18428</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
         <v>36</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>26157</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18428</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -2786,18 +2759,18 @@
         <v>44585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2815,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2830,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2845,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,34 +2827,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>134</v>
+      </c>
+      <c r="D9" s="7">
+        <v>91559</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7">
         <v>177</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>124444</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="7">
-        <v>134</v>
-      </c>
-      <c r="I9" s="7">
-        <v>91559</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -2890,49 +2863,49 @@
         <v>216003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7142</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>11303</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7142</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2941,13 +2914,13 @@
         <v>18445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,34 +2929,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>144</v>
+      </c>
+      <c r="D11" s="7">
+        <v>98701</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
         <v>194</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>135747</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="7">
-        <v>144</v>
-      </c>
-      <c r="I11" s="7">
-        <v>98701</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>338</v>
@@ -2992,18 +2965,18 @@
         <v>234448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3021,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3036,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3051,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,34 +3033,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7">
+        <v>36387</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>38533</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="7">
-        <v>51</v>
-      </c>
-      <c r="I13" s="7">
-        <v>36387</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -3096,49 +3069,49 @@
         <v>74920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1387</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2089</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1387</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3147,13 +3120,13 @@
         <v>3476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,34 +3135,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>37774</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>57</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>40622</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>53</v>
-      </c>
-      <c r="I15" s="7">
-        <v>37774</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -3198,13 +3171,13 @@
         <v>78396</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3242,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3257,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,34 +3239,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>145664</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
         <v>264</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>187320</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="7">
-        <v>212</v>
-      </c>
-      <c r="I17" s="7">
-        <v>145664</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>476</v>
@@ -3302,49 +3275,49 @@
         <v>332984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9239</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15206</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9239</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3353,13 +3326,13 @@
         <v>24445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,34 +3341,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>225</v>
+      </c>
+      <c r="D19" s="7">
+        <v>154903</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
         <v>287</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>202526</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7">
-        <v>225</v>
-      </c>
-      <c r="I19" s="7">
-        <v>154903</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -3404,18 +3377,18 @@
         <v>357429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841BBD53-9076-4212-A2AF-1B52FEC235AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4BAB18-CCC8-4493-ADCE-A928BF3B1F93}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3451,7 +3424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3564,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3579,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3594,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,34 +3576,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8967</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>6731</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8967</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3639,49 +3612,49 @@
         <v>15698</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>692</v>
+        <v>1317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1317</v>
+        <v>692</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3690,13 +3663,13 @@
         <v>2009</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,34 +3678,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10284</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>7423</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10284</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3741,51 +3714,51 @@
         <v>17707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2457</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>2421</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2457</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3794,13 +3767,13 @@
         <v>4878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,34 +3782,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>108</v>
+      </c>
+      <c r="D9" s="7">
+        <v>69032</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="7">
         <v>95</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67591</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9" s="7">
-        <v>108</v>
-      </c>
-      <c r="I9" s="7">
-        <v>69032</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
         <v>203</v>
@@ -3845,49 +3818,49 @@
         <v>136623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3453</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8248</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3453</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3896,13 +3869,13 @@
         <v>11701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,34 +3884,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7">
+        <v>74942</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
         <v>110</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>78260</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="7">
-        <v>117</v>
-      </c>
-      <c r="I11" s="7">
-        <v>74942</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -3947,51 +3920,51 @@
         <v>153202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1793</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1793</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4000,13 +3973,13 @@
         <v>1793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,34 +3988,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>27188</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>22573</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27188</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4051,49 +4024,49 @@
         <v>49761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2456</v>
+        <v>1761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1761</v>
+        <v>2456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4102,13 +4075,13 @@
         <v>4217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,34 +4090,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30742</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>25029</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30742</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>86</v>
@@ -4153,13 +4126,13 @@
         <v>55771</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,34 +4143,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4250</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2421</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4250</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4206,13 +4179,13 @@
         <v>6671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,34 +4194,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>105187</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
         <v>139</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>96894</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H17" s="7">
-        <v>164</v>
-      </c>
-      <c r="I17" s="7">
-        <v>105187</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -4257,49 +4230,49 @@
         <v>202081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6531</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11395</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6531</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -4308,13 +4281,13 @@
         <v>17927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,34 +4296,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>181</v>
+      </c>
+      <c r="D19" s="7">
+        <v>115968</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
         <v>158</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>110711</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7">
-        <v>181</v>
-      </c>
-      <c r="I19" s="7">
-        <v>115968</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -4359,18 +4332,18 @@
         <v>226679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6B753-0A14-44E8-B883-300CC5E326D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C5D4C-9860-42B9-BF51-6854C8C285FC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,7 +4379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4519,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4534,7 +4507,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4549,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,100 +4531,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9096</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
-        <v>8755</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
       <c r="I5" s="7">
-        <v>5683</v>
+        <v>9734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>14438</v>
+        <v>18830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>965</v>
+        <v>815</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1787</v>
+        <v>1720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,102 +4633,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9911</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
-        <v>9720</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
       <c r="I7" s="7">
-        <v>6505</v>
+        <v>10639</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>16225</v>
+        <v>20550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1653</v>
+        <v>491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>491</v>
+        <v>1876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2144</v>
+        <v>2368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,100 +4737,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>55576</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="7">
         <v>84</v>
       </c>
-      <c r="D9" s="7">
-        <v>61786</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="7">
-        <v>81</v>
-      </c>
       <c r="I9" s="7">
-        <v>54282</v>
+        <v>65644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>165</v>
       </c>
       <c r="N9" s="7">
-        <v>116067</v>
+        <v>121220</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3914</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>3195</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
       <c r="I10" s="7">
-        <v>3872</v>
+        <v>3236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>7067</v>
+        <v>7150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,102 +4839,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7">
+        <v>59981</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
         <v>90</v>
       </c>
-      <c r="D11" s="7">
-        <v>66633</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="7">
-        <v>88</v>
-      </c>
       <c r="I11" s="7">
-        <v>58645</v>
+        <v>70756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
       </c>
       <c r="N11" s="7">
-        <v>125278</v>
+        <v>130737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>819</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>833</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,100 +4943,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24181</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="7">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
-        <v>23966</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
       <c r="I13" s="7">
-        <v>23952</v>
+        <v>26309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>47917</v>
+        <v>50490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1504</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
-        <v>3614</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
       <c r="I14" s="7">
-        <v>1434</v>
+        <v>3818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>5048</v>
+        <v>5322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,49 +5045,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7">
+        <v>26505</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
-        <v>27580</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>42</v>
-      </c>
       <c r="I15" s="7">
-        <v>26219</v>
+        <v>30127</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>78</v>
       </c>
       <c r="N15" s="7">
-        <v>53798</v>
+        <v>56632</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,46 +5101,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1653</v>
+        <v>1311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1324</v>
+        <v>1876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2976</v>
+        <v>3187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,97 +5152,97 @@
         <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>94505</v>
+        <v>88853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>83917</v>
+        <v>101687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
       </c>
       <c r="N17" s="7">
-        <v>178423</v>
+        <v>190540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>7774</v>
+        <v>6234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>6128</v>
+        <v>7958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>13902</v>
+        <v>14192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,51 +5254,51 @@
         <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>103932</v>
+        <v>96398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
       </c>
       <c r="I19" s="7">
-        <v>91369</v>
+        <v>111522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>276</v>
       </c>
       <c r="N19" s="7">
-        <v>195301</v>
+        <v>207919</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
